--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H2">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I2">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J2">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.287673666666667</v>
+        <v>0.8059226666666667</v>
       </c>
       <c r="N2">
-        <v>3.863021</v>
+        <v>2.417768</v>
       </c>
       <c r="O2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="P2">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="Q2">
-        <v>175.494027010599</v>
+        <v>54.930296325632</v>
       </c>
       <c r="R2">
-        <v>1579.446243095391</v>
+        <v>494.372666930688</v>
       </c>
       <c r="S2">
-        <v>0.1063907526002281</v>
+        <v>0.02167137611676938</v>
       </c>
       <c r="T2">
-        <v>0.1063907526002281</v>
+        <v>0.02167137611676938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,46 +596,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>136.287657</v>
+        <v>68.158272</v>
       </c>
       <c r="H3">
-        <v>408.862971</v>
+        <v>204.474816</v>
       </c>
       <c r="I3">
-        <v>0.2628768458810872</v>
+        <v>0.164824640128582</v>
       </c>
       <c r="J3">
-        <v>0.2628768458810872</v>
+        <v>0.1648246401285819</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>1.89399</v>
+        <v>5.323633333333333</v>
       </c>
       <c r="N3">
-        <v>5.68197</v>
+        <v>15.9709</v>
       </c>
       <c r="O3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="P3">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
       <c r="Q3">
-        <v>258.12745948143</v>
+        <v>362.8496487616</v>
       </c>
       <c r="R3">
-        <v>2323.14713533287</v>
+        <v>3265.6468388544</v>
       </c>
       <c r="S3">
-        <v>0.1564860932808592</v>
+        <v>0.1431532640118126</v>
       </c>
       <c r="T3">
-        <v>0.1564860932808592</v>
+        <v>0.1431532640118126</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>430.617522</v>
       </c>
       <c r="I4">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J4">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.287673666666667</v>
+        <v>0.8059226666666667</v>
       </c>
       <c r="N4">
-        <v>3.863021</v>
+        <v>2.417768</v>
       </c>
       <c r="O4">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="P4">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="Q4">
-        <v>184.8316144948847</v>
+        <v>115.6814738812107</v>
       </c>
       <c r="R4">
-        <v>1663.484530453962</v>
+        <v>1041.133264930896</v>
       </c>
       <c r="S4">
-        <v>0.1120515319261457</v>
+        <v>0.0456392355023966</v>
       </c>
       <c r="T4">
-        <v>0.1120515319261456</v>
+        <v>0.0456392355023966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>430.617522</v>
       </c>
       <c r="I5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="J5">
-        <v>0.2768638492442244</v>
+        <v>0.3471155005059974</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.89399</v>
+        <v>5.323633333333333</v>
       </c>
       <c r="N5">
-        <v>5.68197</v>
+        <v>15.9709</v>
       </c>
       <c r="O5">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="P5">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
       <c r="Q5">
-        <v>271.86176016426</v>
+        <v>764.1499313455333</v>
       </c>
       <c r="R5">
-        <v>2446.75584147834</v>
+        <v>6877.3493821098</v>
       </c>
       <c r="S5">
-        <v>0.1648123173180788</v>
+        <v>0.3014762650036008</v>
       </c>
       <c r="T5">
-        <v>0.1648123173180787</v>
+        <v>0.3014762650036008</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H6">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I6">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J6">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.287673666666667</v>
+        <v>0.8059226666666667</v>
       </c>
       <c r="N6">
-        <v>3.863021</v>
+        <v>2.417768</v>
       </c>
       <c r="O6">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="P6">
-        <v>0.4047170919281118</v>
+        <v>0.1314814101815314</v>
       </c>
       <c r="Q6">
-        <v>307.2646379746042</v>
+        <v>162.653306439344</v>
       </c>
       <c r="R6">
-        <v>2765.381741771438</v>
+        <v>1463.879757954096</v>
       </c>
       <c r="S6">
-        <v>0.1862748074017382</v>
+        <v>0.06417079856236538</v>
       </c>
       <c r="T6">
-        <v>0.1862748074017381</v>
+        <v>0.06417079856236538</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>238.6199593333333</v>
+        <v>201.822474</v>
       </c>
       <c r="H7">
-        <v>715.859878</v>
+        <v>605.4674219999999</v>
       </c>
       <c r="I7">
-        <v>0.4602593048746885</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="J7">
-        <v>0.4602593048746884</v>
+        <v>0.4880598593654206</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.89399</v>
+        <v>5.323633333333333</v>
       </c>
       <c r="N7">
-        <v>5.68197</v>
+        <v>15.9709</v>
       </c>
       <c r="O7">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184686</v>
       </c>
       <c r="P7">
-        <v>0.5952829080718882</v>
+        <v>0.8685185898184687</v>
       </c>
       <c r="Q7">
-        <v>451.9438167777399</v>
+        <v>1074.4288500022</v>
       </c>
       <c r="R7">
-        <v>4067.49435099966</v>
+        <v>9669.8596500198</v>
       </c>
       <c r="S7">
-        <v>0.2739844974729503</v>
+        <v>0.4238890608030552</v>
       </c>
       <c r="T7">
-        <v>0.2739844974729503</v>
+        <v>0.4238890608030553</v>
       </c>
     </row>
   </sheetData>
